--- a/net_port.xlsx
+++ b/net_port.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="60" windowWidth="13995" windowHeight="6705"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="360">
   <si>
     <t>B9</t>
   </si>
@@ -875,13 +875,287 @@
   </si>
   <si>
     <t>flash_data[15]</t>
+  </si>
+  <si>
+    <t>switches[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switches[1]</t>
+  </si>
+  <si>
+    <t>switches[2]</t>
+  </si>
+  <si>
+    <t>switches[3]</t>
+  </si>
+  <si>
+    <t>switches[4]</t>
+  </si>
+  <si>
+    <t>switches[5]</t>
+  </si>
+  <si>
+    <t>switches[6]</t>
+  </si>
+  <si>
+    <t>switches[7]</t>
+  </si>
+  <si>
+    <t>switches[8]</t>
+  </si>
+  <si>
+    <t>switches[9]</t>
+  </si>
+  <si>
+    <t>switches[10]</t>
+  </si>
+  <si>
+    <t>switches[11]</t>
+  </si>
+  <si>
+    <t>switches[12]</t>
+  </si>
+  <si>
+    <t>switches[13]</t>
+  </si>
+  <si>
+    <t>switches[14]</t>
+  </si>
+  <si>
+    <t>LEDS[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEDS[1]</t>
+  </si>
+  <si>
+    <t>LEDS[2]</t>
+  </si>
+  <si>
+    <t>LEDS[3]</t>
+  </si>
+  <si>
+    <t>LEDS[4]</t>
+  </si>
+  <si>
+    <t>LEDS[5]</t>
+  </si>
+  <si>
+    <t>LEDS[6]</t>
+  </si>
+  <si>
+    <t>LEDS[7]</t>
+  </si>
+  <si>
+    <t>LEDS[8]</t>
+  </si>
+  <si>
+    <t>LEDS[9]</t>
+  </si>
+  <si>
+    <t>LEDS[10]</t>
+  </si>
+  <si>
+    <t>LEDS[11]</t>
+  </si>
+  <si>
+    <t>LEDS[12]</t>
+  </si>
+  <si>
+    <t>LEDS[13]</t>
+  </si>
+  <si>
+    <t>LEDS[14]</t>
+  </si>
+  <si>
+    <t>LEDS[15]</t>
+  </si>
+  <si>
+    <t>J6</t>
+  </si>
+  <si>
+    <t>J7</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>K7</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>B13</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>E13</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>seg7_out_1[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seg7_out_1[1]</t>
+  </si>
+  <si>
+    <t>seg7_out_1[2]</t>
+  </si>
+  <si>
+    <t>seg7_out_1[3]</t>
+  </si>
+  <si>
+    <t>seg7_out_1[4]</t>
+  </si>
+  <si>
+    <t>seg7_out_1[5]</t>
+  </si>
+  <si>
+    <t>seg7_out_1[6]</t>
+  </si>
+  <si>
+    <t>seg7_out_2[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seg7_out_2[1]</t>
+  </si>
+  <si>
+    <t>seg7_out_2[2]</t>
+  </si>
+  <si>
+    <t>seg7_out_2[3]</t>
+  </si>
+  <si>
+    <t>seg7_out_2[4]</t>
+  </si>
+  <si>
+    <t>seg7_out_2[5]</t>
+  </si>
+  <si>
+    <t>seg7_out_2[6]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -912,6 +1186,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -972,7 +1252,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1012,9 +1292,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1027,7 +1334,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1313,15 +1620,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D132"/>
+  <dimension ref="A1:D176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="F117" sqref="F117"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="D155" sqref="D155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="1"/>
     <col min="4" max="4" width="10.875" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
@@ -2492,7 +2799,366 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="132" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B132" s="13" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A133" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B133" s="14" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A134" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B134" s="14" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A135" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B135" s="14" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A136" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B136" s="14" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A137" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B137" s="14" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A138" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B138" s="14" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A139" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B139" s="14" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A140" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B140" s="14" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A141" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B141" s="14" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A142" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B142" s="14" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A143" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B143" s="14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A144" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B144" s="14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A145" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B145" s="14" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B146" s="14" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B147" s="13" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A148" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B148" s="14" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A149" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B149" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A150" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B150" s="14" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A151" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B151" s="14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A152" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B152" s="14" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A153" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B153" s="14" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B154" s="15" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A155" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B155" s="16" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A156" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B156" s="17" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A157" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B157" s="17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A158" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B158" s="17" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A159" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B159" s="17" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A160" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B160" s="17" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A161" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B161" s="17" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B162" s="18" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B163" s="19" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A164" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B164" s="17" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A165" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B165" s="17" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A166" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B166" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A167" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B167" s="17" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A168" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B168" s="17" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B169" s="20" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A170" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B170" s="13" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A171" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B171" s="14" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A172" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B172" s="14" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A173" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B173" s="14" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A174" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B174" s="14" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A175" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B175" s="14" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B176" s="21" t="s">
+        <v>345</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/net_port.xlsx
+++ b/net_port.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="483">
   <si>
     <t>B9</t>
   </si>
@@ -1149,6 +1149,377 @@
   </si>
   <si>
     <t>seg7_out_2[6]</t>
+  </si>
+  <si>
+    <t>auto_clk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[00400024]</t>
+  </si>
+  <si>
+    <t>3c011fd0</t>
+  </si>
+  <si>
+    <t>lui</t>
+  </si>
+  <si>
+    <t>$1,</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>li</t>
+  </si>
+  <si>
+    <t>$8,0x1FD003F8</t>
+  </si>
+  <si>
+    <t>[00400028]</t>
+  </si>
+  <si>
+    <t>342803f8</t>
+  </si>
+  <si>
+    <t>ori</t>
+  </si>
+  <si>
+    <t>$8,</t>
+  </si>
+  <si>
+    <t>[0040002c]</t>
+  </si>
+  <si>
+    <t>$9,</t>
+  </si>
+  <si>
+    <t>$0,</t>
+  </si>
+  <si>
+    <t>$9,0x23</t>
+  </si>
+  <si>
+    <t>[00400030]</t>
+  </si>
+  <si>
+    <t>ad090000</t>
+  </si>
+  <si>
+    <t>sw</t>
+  </si>
+  <si>
+    <t>0($8)</t>
+  </si>
+  <si>
+    <t>$9,0($8)</t>
+  </si>
+  <si>
+    <t>[00400034]</t>
+  </si>
+  <si>
+    <t>8d090000</t>
+  </si>
+  <si>
+    <t>lw</t>
+  </si>
+  <si>
+    <t>[00400038]</t>
+  </si>
+  <si>
+    <t>[0040003c]</t>
+  </si>
+  <si>
+    <t>2408000c</t>
+  </si>
+  <si>
+    <t>addiu</t>
+  </si>
+  <si>
+    <t>$8,$0,12</t>
+  </si>
+  <si>
+    <t>[00400040]</t>
+  </si>
+  <si>
+    <t>$9,$0,21</t>
+  </si>
+  <si>
+    <t>[00400044]</t>
+  </si>
+  <si>
+    <t>addu</t>
+  </si>
+  <si>
+    <t>$10,</t>
+  </si>
+  <si>
+    <t>$10,$9,$2</t>
+  </si>
+  <si>
+    <t>[00400048]</t>
+  </si>
+  <si>
+    <t>bne</t>
+  </si>
+  <si>
+    <t>[NE-0x00400048];</t>
+  </si>
+  <si>
+    <t>$8,$9,NE</t>
+  </si>
+  <si>
+    <t>[0040004c]</t>
+  </si>
+  <si>
+    <t>nop</t>
+  </si>
+  <si>
+    <t>[00400050]</t>
+  </si>
+  <si>
+    <t>xor</t>
+  </si>
+  <si>
+    <t>$8,$8,$8</t>
+  </si>
+  <si>
+    <t>[00400054]</t>
+  </si>
+  <si>
+    <t>240b0002</t>
+  </si>
+  <si>
+    <t>$11,</t>
+  </si>
+  <si>
+    <t>$11,$0,2</t>
+  </si>
+  <si>
+    <t>[00400058]</t>
+  </si>
+  <si>
+    <t>sll</t>
+  </si>
+  <si>
+    <t>$8,$8,1</t>
+  </si>
+  <si>
+    <t>[0040005c]</t>
+  </si>
+  <si>
+    <t>sllv</t>
+  </si>
+  <si>
+    <t>$8,$8,$11</t>
+  </si>
+  <si>
+    <t>[00400060]</t>
+  </si>
+  <si>
+    <t>mult</t>
+  </si>
+  <si>
+    <t>$8,$9</t>
+  </si>
+  <si>
+    <t>[00400064]</t>
+  </si>
+  <si>
+    <t>mfhi</t>
+  </si>
+  <si>
+    <t>[00400068]</t>
+  </si>
+  <si>
+    <t>mflo</t>
+  </si>
+  <si>
+    <t>[0040006c]</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>$8,$0</t>
+  </si>
+  <si>
+    <t>[00400070]</t>
+  </si>
+  <si>
+    <t>3c088000</t>
+  </si>
+  <si>
+    <t>$8,0x8000</t>
+  </si>
+  <si>
+    <t>[00400074]</t>
+  </si>
+  <si>
+    <t>ad090004</t>
+  </si>
+  <si>
+    <t>4($8)</t>
+  </si>
+  <si>
+    <t>$9,4($8)</t>
+  </si>
+  <si>
+    <t>[00400078]</t>
+  </si>
+  <si>
+    <t>8d0a0004</t>
+  </si>
+  <si>
+    <t>$10,4($8)</t>
+  </si>
+  <si>
+    <t>8144</t>
+  </si>
+  <si>
+    <t>2:</t>
+  </si>
+  <si>
+    <t>1016</t>
+  </si>
+  <si>
+    <t>34090023</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>3:</t>
+  </si>
+  <si>
+    <t>4:</t>
+  </si>
+  <si>
+    <t>5:</t>
+  </si>
+  <si>
+    <t>6:</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>7:</t>
+  </si>
+  <si>
+    <t>24090015</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>8:</t>
+  </si>
+  <si>
+    <t>01225021</t>
+  </si>
+  <si>
+    <t>$2</t>
+  </si>
+  <si>
+    <t>9:</t>
+  </si>
+  <si>
+    <t>15090002</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>10:</t>
+  </si>
+  <si>
+    <t>00000000</t>
+  </si>
+  <si>
+    <t>11:</t>
+  </si>
+  <si>
+    <t>01084026</t>
+  </si>
+  <si>
+    <t>$8</t>
+  </si>
+  <si>
+    <t>12:</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>14:</t>
+  </si>
+  <si>
+    <t>00084040</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>15:</t>
+  </si>
+  <si>
+    <t>01684004</t>
+  </si>
+  <si>
+    <t>$11</t>
+  </si>
+  <si>
+    <t>16:</t>
+  </si>
+  <si>
+    <t>01090018</t>
+  </si>
+  <si>
+    <t>$9</t>
+  </si>
+  <si>
+    <t>17:</t>
+  </si>
+  <si>
+    <t>00005010</t>
+  </si>
+  <si>
+    <t>$10</t>
+  </si>
+  <si>
+    <t>18:</t>
+  </si>
+  <si>
+    <t>00005812</t>
+  </si>
+  <si>
+    <t>19:</t>
+  </si>
+  <si>
+    <t>00004021</t>
+  </si>
+  <si>
+    <t>$0</t>
+  </si>
+  <si>
+    <t>20:</t>
+  </si>
+  <si>
+    <t>-32768</t>
+  </si>
+  <si>
+    <t>21:</t>
+  </si>
+  <si>
+    <t>22:</t>
+  </si>
+  <si>
+    <t>23:</t>
   </si>
 </sst>
 </file>
@@ -1256,67 +1627,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1620,10 +1991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D176"/>
+  <dimension ref="A1:AJ177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="D155" sqref="D155"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="L171" sqref="L171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1631,7 +2002,9 @@
     <col min="1" max="1" width="16.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="1"/>
     <col min="4" max="4" width="10.875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="5" max="11" width="9" style="1"/>
+    <col min="12" max="13" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -1652,8 +2025,8 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
+      <c r="B2" s="1" t="s">
+        <v>361</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -1664,1059 +2037,1056 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="1">
         <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B24" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C24" s="1">
         <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B40" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B41" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
+    <row r="42" spans="1:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C42" s="1">
         <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+    <row r="57" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B57" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="1" t="s">
+    <row r="58" spans="1:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B58" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C58" s="1">
         <v>16</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A58" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B72" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
+    <row r="73" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B73" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="1" t="s">
+    <row r="74" spans="1:4" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B74" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="C73" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A74" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="C74" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>101</v>
+        <v>12</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="C75" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>102</v>
+        <v>13</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="C76" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>103</v>
+        <v>14</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="C77" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>104</v>
+        <v>15</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="C78" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>105</v>
+        <v>16</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="C79" s="1">
         <v>1</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="80" spans="1:4" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C80" s="1">
         <v>1</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C81" s="1">
         <v>1</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C82" s="1">
         <v>1</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C83" s="1">
         <v>1</v>
       </c>
       <c r="D83" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A84" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C84" s="1">
-        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>116</v>
+        <v>231</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C85" s="1">
+        <v>23</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A106" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B106" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
+    <row r="107" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B107" s="4" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A107" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B107" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="C107" s="1">
-        <v>16</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>160</v>
+        <v>254</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C108" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A122" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="B122" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
+    <row r="123" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B122" s="12" t="s">
+      <c r="B123" s="12" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="1" t="s">
+    <row r="124" spans="1:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="B124" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="C123" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A124" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>151</v>
       </c>
       <c r="C124" s="1">
         <v>1</v>
@@ -2724,10 +3094,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C125" s="1">
         <v>1</v>
@@ -2735,10 +3105,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C126" s="1">
         <v>1</v>
@@ -2746,10 +3116,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C127" s="1">
         <v>1</v>
@@ -2757,10 +3127,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C128" s="1">
         <v>1</v>
@@ -2768,10 +3138,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C129" s="1">
         <v>1</v>
@@ -2779,383 +3149,994 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C130" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>158</v>
+        <v>29</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="C131" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C132" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B132" s="13" t="s">
+      <c r="B133" s="13" t="s">
         <v>301</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A133" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B133" s="14" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B138" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B139" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B141" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B143" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B144" s="14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="145" spans="1:30" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A145" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B144" s="14" t="s">
+      <c r="B145" s="14" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A145" s="1" t="s">
+    <row r="146" spans="1:30" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A146" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B145" s="14" t="s">
+      <c r="B146" s="14" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="1" t="s">
+    <row r="147" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B146" s="14" t="s">
+      <c r="B147" s="14" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="1" t="s">
+    <row r="148" spans="1:30" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B147" s="13" t="s">
+      <c r="B148" s="13" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A148" s="1" t="s">
+    <row r="149" spans="1:30" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A149" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B148" s="14" t="s">
+      <c r="B149" s="14" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A149" s="1" t="s">
+    <row r="150" spans="1:30" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A150" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B149" s="14" t="s">
+      <c r="B150" s="14" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A150" s="1" t="s">
+    <row r="151" spans="1:30" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A151" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B150" s="14" t="s">
+      <c r="B151" s="14" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A151" s="1" t="s">
+    <row r="152" spans="1:30" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A152" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B151" s="14" t="s">
+      <c r="B152" s="14" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A152" s="1" t="s">
+    <row r="153" spans="1:30" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A153" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B152" s="14" t="s">
+      <c r="B153" s="14" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A153" s="1" t="s">
+      <c r="I153" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="L153" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="M153" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="N153" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="AA153" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="AB153" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="AC153" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="AD153" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="154" spans="1:30" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A154" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B153" s="14" t="s">
+      <c r="B154" s="14" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="1" t="s">
+      <c r="I154" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J154" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="L154" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="M154" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="N154" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="O154" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="155" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B154" s="15" t="s">
+      <c r="B155" s="15" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="1" t="s">
+      <c r="I155" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="L155" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="M155" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="N155" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="O155" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="Z155" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="AA155" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AB155" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="AC155" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="156" spans="1:30" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A156" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B155" s="16" t="s">
+      <c r="B156" s="16" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A156" s="1" t="s">
+      <c r="I156" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="L156" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="M156" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="N156" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AA156" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="AB156" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="AC156" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AD156" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="157" spans="1:30" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A157" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B156" s="17" t="s">
+      <c r="B157" s="17" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A157" s="1" t="s">
+      <c r="I157" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="L157" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="M157" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="N157" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AA157" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="AB157" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AC157" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="AD157" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="158" spans="1:30" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A158" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B157" s="17" t="s">
+      <c r="B158" s="17" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A158" s="1" t="s">
+      <c r="I158" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="J158" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="L158" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="M158" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="N158" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AA158" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="AB158" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="AC158" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AD158" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="159" spans="1:30" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A159" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B158" s="17" t="s">
+      <c r="B159" s="17" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A159" s="1" t="s">
+      <c r="I159" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="L159" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="M159" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="N159" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="O159" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="X159" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y159" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="Z159" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="AA159" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="160" spans="1:30" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A160" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B159" s="17" t="s">
+      <c r="B160" s="17" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A160" s="1" t="s">
+      <c r="I160" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J160" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="L160" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="M160" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="N160" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="O160" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="X160" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y160" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="Z160" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="AA160" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="161" spans="1:36" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A161" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B160" s="17" t="s">
+      <c r="B161" s="17" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A161" s="1" t="s">
+      <c r="I161" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="L161" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="M161" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="N161" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="O161" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="X161" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y161" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="Z161" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="AA161" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="162" spans="1:36" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A162" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B161" s="17" t="s">
+      <c r="B162" s="17" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="1" t="s">
+      <c r="I162" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J162" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="L162" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="M162" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="N162" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="O162" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="P162" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q162" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="R162" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="S162" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="163" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B162" s="18" t="s">
+      <c r="B163" s="18" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="1" t="s">
+      <c r="I163" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="J163" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="L163" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="AH163" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="AI163" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="AJ163" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="164" spans="1:36" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B163" s="19" t="s">
+      <c r="B164" s="19" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A164" s="1" t="s">
+      <c r="I164" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="J164" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="L164" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="M164" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="N164" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="O164" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="Z164" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="AA164" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="AB164" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="AC164" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="165" spans="1:36" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A165" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B164" s="17" t="s">
+      <c r="B165" s="17" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A165" s="1" t="s">
+      <c r="I165" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="J165" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="L165" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="M165" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="N165" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="O165" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="X165" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y165" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="Z165" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="AA165" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="166" spans="1:36" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A166" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B165" s="17" t="s">
+      <c r="B166" s="17" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A166" s="1" t="s">
+      <c r="I166" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="J166" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="L166" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="M166" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="N166" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="O166" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="AA166" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="AB166" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="AC166" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="AD166" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="167" spans="1:36" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A167" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B166" s="17" t="s">
+      <c r="B167" s="17" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A167" s="1" t="s">
+      <c r="I167" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="J167" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="L167" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="M167" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="N167" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="O167" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="X167" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y167" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="Z167" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="AA167" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="168" spans="1:36" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A168" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B167" s="17" t="s">
+      <c r="B168" s="17" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A168" s="1" t="s">
+      <c r="I168" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="J168" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="L168" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="M168" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="N168" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AB168" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="AC168" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AD168" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="AE168" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="169" spans="1:36" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A169" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B168" s="17" t="s">
+      <c r="B169" s="17" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="1" t="s">
+      <c r="I169" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="J169" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="L169" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="M169" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="AD169" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="AE169" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="AF169" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AG169" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="170" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B169" s="20" t="s">
+      <c r="B170" s="20" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A170" s="1" t="s">
+      <c r="I170" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="J170" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="L170" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="M170" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="AD170" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="AE170" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="AF170" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="AG170" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="171" spans="1:36" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A171" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B170" s="13" t="s">
+      <c r="B171" s="13" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A171" s="1" t="s">
+      <c r="I171" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="J171" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="L171" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="M171" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="N171" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="O171" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y171" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z171" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="AA171" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="AB171" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="172" spans="1:36" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A172" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B171" s="14" t="s">
+      <c r="B172" s="14" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A172" s="1" t="s">
+      <c r="I172" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="J172" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="L172" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="M172" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="N172" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y172" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z172" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="AA172" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="AB172" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="173" spans="1:36" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A173" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B172" s="14" t="s">
+      <c r="B173" s="14" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A173" s="1" t="s">
+      <c r="I173" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="J173" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="L173" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="M173" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="N173" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="AA173" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="AB173" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="AC173" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AD173" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="174" spans="1:36" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A174" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B173" s="14" t="s">
+      <c r="B174" s="14" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A174" s="1" t="s">
+      <c r="I174" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="J174" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="L174" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="M174" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="N174" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="Z174" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="AA174" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="AB174" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="AC174" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="175" spans="1:36" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A175" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B174" s="14" t="s">
+      <c r="B175" s="14" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A175" s="1" t="s">
+    <row r="176" spans="1:36" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A176" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B175" s="14" t="s">
+      <c r="B176" s="14" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="1" t="s">
+    <row r="177" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B176" s="21" t="s">
+      <c r="B177" s="21" t="s">
         <v>345</v>
       </c>
     </row>
